--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.8920471161708</v>
+        <v>830.361569243868</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.31204711617629</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.543081842679335</v>
+        <v>8.161660554742911</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.543081842679335</v>
+        <v>7.752483473055587</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>456.8299999999945</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.7500000000001</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -885,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.20851569551316</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553446</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.37739353073907</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -993,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1007,15 +1029,113 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5049999999979</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3399999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4649999999991</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>231.7649999999987</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>241.2050000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>242.1899999999999</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>249.0099999999985</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>246.2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.06</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.715</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999721</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999862</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999844</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999707</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999706</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>208.06</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>189.4349999999993</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>206.715</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>193.8399999999993</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>231.7649999999987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>241.2050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>242.1899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>249.0099999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>246.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.06</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1550,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.715</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1583,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1594,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>31.76499999999868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1605,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>41.20500000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1616,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>42.18999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>49.00999999999854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>46.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1696,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1707,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1718,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1729,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1740,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1751,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1762,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1773,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1784,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1795,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1806,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1817,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1839,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1905,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1916,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1927,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1938,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1949,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2001,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2012,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2023,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2034,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2045,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2056,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2067,12 +2187,34 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
